--- a/partial_results/7.xlsx
+++ b/partial_results/7.xlsx
@@ -469,25 +469,25 @@
         <v>175</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>150</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>125</v>
@@ -529,13 +529,13 @@
         <v>50</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>25</v>
@@ -543,13 +543,13 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -579,25 +579,25 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>5</v>
@@ -615,13 +615,13 @@
         <v>5</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="s">
         <v>5</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4">
         <v>2</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -715,37 +715,37 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -775,13 +775,13 @@
         <v>4</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>2</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="s">
         <v>4</v>
@@ -801,28 +801,28 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>-1.618206169932936</v>
+        <v>0.04031726542729064</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>-0.9590193517969926</v>
+        <v>-0.04499318908272865</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -834,19 +834,19 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>-1.275707918117592</v>
+        <v>-0.6251490730970364</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>-1.781447027113972</v>
+        <v>-0.8225941272394377</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="T6">
-        <v>-2.060194738929083</v>
+        <v>-0.5927552424260771</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -870,30 +870,30 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>-2.979166572107756</v>
+        <v>-0.9380425654541509</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>-1.614605404540272</v>
+        <v>-1.51847720113571</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -923,31 +923,31 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -961,40 +961,40 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -1017,22 +1017,22 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -1044,25 +1044,25 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>2</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -1091,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1165,31 +1165,31 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -1201,13 +1201,13 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>4</v>
       </c>
       <c r="AA11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1221,31 +1221,31 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1257,13 +1257,13 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V12">
         <v>2</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>2</v>
@@ -1277,43 +1277,43 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>2</v>
@@ -1322,13 +1322,13 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V13">
         <v>3</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>2</v>
@@ -1342,13 +1342,13 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1360,40 +1360,40 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>2</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14">
         <v>2</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>2</v>
@@ -1416,16 +1416,16 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1434,13 +1434,13 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -1526,13 +1526,13 @@
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>2</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1546,49 +1546,49 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>3</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1611,49 +1611,49 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>2</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <v>2</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>2</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -1676,22 +1676,22 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1721,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>2</v>
       </c>
       <c r="AA19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -1759,87 +1759,87 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>2</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R20">
         <v>2</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20">
         <v>2</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>2</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -1862,34 +1862,34 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1907,51 +1907,51 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>2</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z22">
         <v>3</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>1</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2001,40 +2001,40 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <v>2</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -2046,45 +2046,45 @@
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>2</v>
       </c>
       <c r="AA24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -2093,31 +2093,31 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>3</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>2</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>3</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2140,31 +2140,31 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>2</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -2187,69 +2187,69 @@
     </row>
     <row r="27" spans="1:27">
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>2</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>3</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>2</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>2</v>
       </c>
       <c r="AA27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2261,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -2279,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28">
         <v>1</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2335,22 +2335,22 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>1</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>2</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -2364,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>2</v>
@@ -2400,18 +2400,18 @@
         <v>2</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>2</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2420,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2447,27 +2447,27 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>2</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>1</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -2476,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>2</v>
@@ -2523,22 +2523,22 @@
     </row>
     <row r="33" spans="5:27">
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>2</v>
@@ -2550,81 +2550,81 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>3</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>3</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="5:27">
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34">
         <v>2</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>2</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z34">
         <v>1</v>
@@ -2635,34 +2635,34 @@
     </row>
     <row r="35" spans="5:27">
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>2</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35">
         <v>2</v>
@@ -2691,25 +2691,25 @@
     </row>
     <row r="36" spans="5:27">
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>2</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2718,42 +2718,42 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>2</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36">
         <v>1</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>2</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="5:27">
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2774,42 +2774,42 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z37">
         <v>2</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="5:27">
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -2839,13 +2839,13 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>2</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -2868,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2886,22 +2886,22 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>1</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <v>2</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>2</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2942,31 +2942,31 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z40">
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="5:27">
@@ -2989,31 +2989,31 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>1</v>
       </c>
       <c r="W41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -3036,13 +3036,13 @@
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>2</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -3063,22 +3063,22 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <v>1</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
         <v>3</v>
       </c>
       <c r="AA42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="5:27">
@@ -3092,40 +3092,40 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>2</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>2</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>2</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <v>2</v>
       </c>
       <c r="W43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -3148,13 +3148,13 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>3</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>2</v>
@@ -3166,22 +3166,22 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R44">
         <v>1</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>1</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -3213,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -3231,13 +3231,13 @@
         <v>1</v>
       </c>
       <c r="U45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V45">
         <v>2</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="46" spans="5:27">
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3260,13 +3260,13 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>2</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V47">
         <v>1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>2</v>
@@ -3381,40 +3381,40 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48">
         <v>2</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>2</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48">
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="5:27">
@@ -3428,22 +3428,22 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>2</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -3455,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>2</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3475,31 +3475,31 @@
     </row>
     <row r="50" spans="5:27">
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>2</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V50">
         <v>3</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -3576,13 +3576,13 @@
         <v>1</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>2</v>
       </c>
       <c r="AA51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="5:27">
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -3614,22 +3614,22 @@
         <v>1</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <v>3</v>
       </c>
       <c r="W52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>2</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="5:27">
@@ -3643,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N53">
         <v>2</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53">
         <v>2</v>
       </c>
       <c r="W53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="54" spans="5:27">
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3699,22 +3699,22 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>1</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V54">
         <v>2</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -3737,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>2</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V55">
         <v>2</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -3775,13 +3775,13 @@
     </row>
     <row r="56" spans="5:27">
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>2</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -3793,22 +3793,22 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R56">
         <v>1</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
         <v>2</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -3822,49 +3822,49 @@
     </row>
     <row r="57" spans="5:27">
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57">
         <v>3</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>2</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R57">
         <v>1</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V57">
         <v>2</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>2</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="5:27">
@@ -3887,16 +3887,16 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R58">
         <v>1</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>1</v>
@@ -3916,40 +3916,40 @@
     </row>
     <row r="59" spans="5:27">
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>2</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V59">
         <v>2</v>
       </c>
       <c r="W59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -3972,16 +3972,16 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R60">
         <v>2</v>
@@ -3990,22 +3990,22 @@
         <v>1</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V60">
         <v>2</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z60">
         <v>2</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="5:27">
@@ -4019,31 +4019,31 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>2</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>2</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V61">
         <v>2</v>
       </c>
       <c r="W61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="62" spans="5:27">
       <c r="I62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -4066,22 +4066,22 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>2</v>
       </c>
       <c r="O62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62">
         <v>2</v>
@@ -4093,24 +4093,24 @@
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62">
         <v>1</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="5:27">
       <c r="I63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J63">
         <v>3</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -4131,13 +4131,13 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
         <v>1</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -4151,22 +4151,22 @@
     </row>
     <row r="64" spans="5:27">
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>2</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -4178,42 +4178,42 @@
         <v>1</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V64">
         <v>1</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z64">
         <v>2</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:27">
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>2</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65">
         <v>2</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -4225,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V65">
         <v>1</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4245,22 +4245,22 @@
     </row>
     <row r="66" spans="9:27">
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>2</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>1</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -4272,33 +4272,33 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V66">
         <v>1</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66">
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="9:27">
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>3</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -4310,22 +4310,22 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R67">
         <v>3</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V67">
         <v>1</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -4348,25 +4348,25 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N68">
         <v>2</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R68">
         <v>2</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>2</v>
@@ -4375,13 +4375,13 @@
         <v>1</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
         <v>2</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="9:27">
@@ -4404,25 +4404,25 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>2</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V69">
         <v>1</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z69">
         <v>1</v>
@@ -4442,34 +4442,34 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>1</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V70">
         <v>2</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z70">
         <v>2</v>
@@ -4489,13 +4489,13 @@
         <v>1</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>1</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -4507,33 +4507,33 @@
         <v>0</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V71">
         <v>1</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71">
         <v>1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="9:27">
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4554,22 +4554,22 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V72">
         <v>2</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z72">
         <v>1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="9:27">
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -4601,22 +4601,22 @@
         <v>1</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V73">
         <v>1</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z73">
         <v>2</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="9:27">
@@ -4630,31 +4630,31 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
         <v>2</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V74">
         <v>2</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>1</v>
@@ -4668,87 +4668,87 @@
     </row>
     <row r="75" spans="9:27">
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>3</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75">
         <v>2</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R75">
         <v>2</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V75">
         <v>2</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z75">
         <v>3</v>
       </c>
       <c r="AA75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="9:27">
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
         <v>2</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>2</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V76">
         <v>2</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76">
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R77">
         <v>1</v>
@@ -4780,13 +4780,13 @@
         <v>1</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77">
         <v>2</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -4809,22 +4809,22 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R78">
         <v>2</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78">
         <v>1</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78">
         <v>1</v>
@@ -4847,22 +4847,22 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79">
         <v>1</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V79">
         <v>1</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -4876,22 +4876,22 @@
     </row>
     <row r="80" spans="9:27">
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R80">
         <v>2</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U80">
         <v>1</v>
@@ -4914,22 +4914,22 @@
     </row>
     <row r="81" spans="13:27">
       <c r="M81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <v>2</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R81">
         <v>1</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U81">
         <v>2</v>
@@ -4961,13 +4961,13 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R82">
         <v>2</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82">
         <v>2</v>
@@ -4999,36 +4999,36 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R83">
         <v>2</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V83">
         <v>1</v>
       </c>
       <c r="W83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z83">
         <v>1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="13:27">
       <c r="M84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -5037,22 +5037,22 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R84">
         <v>2</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V84">
         <v>1</v>
       </c>
       <c r="W84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>0</v>
@@ -5066,60 +5066,60 @@
     </row>
     <row r="85" spans="13:27">
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>2</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R85">
         <v>1</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V85">
         <v>2</v>
       </c>
       <c r="W85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z85">
         <v>2</v>
       </c>
       <c r="AA85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="13:27">
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86">
         <v>3</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>2</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U86">
         <v>1</v>
@@ -5142,51 +5142,51 @@
     </row>
     <row r="87" spans="13:27">
       <c r="M87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N87">
         <v>3</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87">
         <v>2</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87">
         <v>1</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z87">
         <v>1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="13:27">
       <c r="M88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N88">
         <v>3</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -5198,51 +5198,51 @@
         <v>3</v>
       </c>
       <c r="U88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V88">
         <v>2</v>
       </c>
       <c r="W88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z88">
         <v>1</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="13:27">
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <v>2</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R89">
         <v>1</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V89">
         <v>2</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89">
         <v>1</v>
@@ -5256,31 +5256,31 @@
     </row>
     <row r="90" spans="13:27">
       <c r="M90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>2</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R90">
         <v>2</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V90">
         <v>1</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y90">
         <v>1</v>
@@ -5294,22 +5294,22 @@
     </row>
     <row r="91" spans="13:27">
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>2</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>1</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91">
         <v>2</v>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z91">
         <v>1</v>
@@ -5341,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R92">
         <v>2</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>1</v>
@@ -5359,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z92">
         <v>1</v>
@@ -5388,33 +5388,33 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V93">
         <v>2</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z93">
         <v>2</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="13:27">
       <c r="M94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N94">
         <v>2</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -5426,13 +5426,13 @@
         <v>1</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V94">
         <v>2</v>
       </c>
       <c r="W94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94">
         <v>1</v>
@@ -5446,31 +5446,31 @@
     </row>
     <row r="95" spans="13:27">
       <c r="M95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N95">
         <v>2</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R95">
         <v>1</v>
       </c>
       <c r="S95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V95">
         <v>1</v>
       </c>
       <c r="W95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y95">
         <v>0</v>
@@ -5493,31 +5493,31 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>1</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V96">
         <v>2</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z96">
         <v>1</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="13:27">
@@ -5549,13 +5549,13 @@
         <v>0</v>
       </c>
       <c r="Y97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z97">
         <v>2</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="13:27">
@@ -5578,13 +5578,13 @@
         <v>0</v>
       </c>
       <c r="U98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V98">
         <v>2</v>
       </c>
       <c r="W98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y98">
         <v>0</v>
@@ -5616,13 +5616,13 @@
         <v>0</v>
       </c>
       <c r="U99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V99">
         <v>2</v>
       </c>
       <c r="W99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -5645,42 +5645,42 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100">
         <v>2</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V100">
         <v>2</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z100">
         <v>2</v>
       </c>
       <c r="AA100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="13:27">
       <c r="M101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <v>1</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
         <v>1</v>
@@ -5692,33 +5692,33 @@
         <v>1</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V101">
         <v>2</v>
       </c>
       <c r="W101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z101">
         <v>2</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="13:27">
       <c r="Q102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R102">
         <v>1</v>
       </c>
       <c r="S102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U102">
         <v>1</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="103" spans="13:27">
       <c r="Q103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R103">
         <v>2</v>
@@ -5750,13 +5750,13 @@
         <v>1</v>
       </c>
       <c r="U103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V103">
         <v>2</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y103">
         <v>0</v>
@@ -5779,91 +5779,91 @@
         <v>0</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V104">
         <v>1</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z104">
         <v>1</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="13:27">
       <c r="Q105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>1</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V105">
         <v>2</v>
       </c>
       <c r="W105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z105">
         <v>1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="13:27">
       <c r="Q106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R106">
         <v>2</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V106">
         <v>1</v>
       </c>
       <c r="W106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z106">
         <v>1</v>
       </c>
       <c r="AA106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="13:27">
       <c r="Q107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R107">
         <v>3</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U107">
         <v>1</v>
@@ -5875,33 +5875,33 @@
         <v>1</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z107">
         <v>1</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="13:27">
       <c r="Q108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R108">
         <v>1</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V108">
         <v>2</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y108">
         <v>2</v>
@@ -5915,13 +5915,13 @@
     </row>
     <row r="109" spans="13:27">
       <c r="Q109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R109">
         <v>1</v>
       </c>
       <c r="S109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U109">
         <v>1</v>
@@ -5933,13 +5933,13 @@
         <v>1</v>
       </c>
       <c r="Y109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z109">
         <v>1</v>
       </c>
       <c r="AA109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="13:27">
@@ -5953,62 +5953,62 @@
         <v>1</v>
       </c>
       <c r="U110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V110">
         <v>1</v>
       </c>
       <c r="W110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z110">
         <v>2</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="13:27">
       <c r="Q111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R111">
         <v>3</v>
       </c>
       <c r="S111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V111">
         <v>2</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z111">
         <v>2</v>
       </c>
       <c r="AA111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="13:27">
       <c r="Q112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R112">
         <v>3</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U112">
         <v>1</v>
@@ -6020,42 +6020,42 @@
         <v>1</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z112">
         <v>1</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="17:27">
       <c r="Q113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R113">
         <v>3</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V113">
         <v>4</v>
       </c>
       <c r="W113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z113">
         <v>2</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="17:27">
@@ -6098,22 +6098,22 @@
         <v>0</v>
       </c>
       <c r="U115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V115">
         <v>2</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z115">
         <v>1</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="17:27">
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V116">
         <v>1</v>
@@ -6136,53 +6136,53 @@
         <v>1</v>
       </c>
       <c r="Y116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z116">
         <v>1</v>
       </c>
       <c r="AA116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="17:27">
       <c r="Q117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117">
         <v>3</v>
       </c>
       <c r="S117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V117">
         <v>2</v>
       </c>
       <c r="W117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z117">
         <v>3</v>
       </c>
       <c r="AA117">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="17:27">
       <c r="Q118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R118">
         <v>2</v>
       </c>
       <c r="S118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118">
         <v>1</v>
@@ -6194,13 +6194,13 @@
         <v>1</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z118">
         <v>2</v>
       </c>
       <c r="AA118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="17:27">
@@ -6223,13 +6223,13 @@
         <v>1</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z119">
         <v>2</v>
       </c>
       <c r="AA119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="17:27">
@@ -6243,22 +6243,22 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V120">
         <v>1</v>
       </c>
       <c r="W120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z120">
         <v>1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="17:27">
@@ -6272,33 +6272,33 @@
         <v>0</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V121">
         <v>1</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z121">
         <v>2</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="17:27">
       <c r="Q122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R122">
         <v>1</v>
       </c>
       <c r="S122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U122">
         <v>2</v>
@@ -6310,13 +6310,13 @@
         <v>1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z122">
         <v>1</v>
       </c>
       <c r="AA122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="17:27">
@@ -6330,22 +6330,22 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V123">
         <v>1</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z123">
         <v>2</v>
       </c>
       <c r="AA123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="17:27">
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V124">
         <v>1</v>
@@ -6368,13 +6368,13 @@
         <v>1</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z124">
         <v>2</v>
       </c>
       <c r="AA124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="17:27">
@@ -6397,13 +6397,13 @@
         <v>1</v>
       </c>
       <c r="Y125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z125">
         <v>2</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="17:27">
@@ -6417,33 +6417,33 @@
         <v>0</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V126">
         <v>2</v>
       </c>
       <c r="W126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z126">
         <v>2</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="17:27">
       <c r="U127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V127">
         <v>1</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127">
         <v>1</v>
@@ -6457,13 +6457,13 @@
     </row>
     <row r="128" spans="17:27">
       <c r="U128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V128">
         <v>2</v>
       </c>
       <c r="W128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y128">
         <v>2</v>
@@ -6477,13 +6477,13 @@
     </row>
     <row r="129" spans="21:27">
       <c r="U129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V129">
         <v>1</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y129">
         <v>0</v>
@@ -6497,13 +6497,13 @@
     </row>
     <row r="130" spans="21:27">
       <c r="U130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V130">
         <v>1</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y130">
         <v>0</v>
@@ -6557,93 +6557,93 @@
     </row>
     <row r="133" spans="21:27">
       <c r="U133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V133">
         <v>1</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z133">
         <v>2</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="21:27">
       <c r="U134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V134">
         <v>1</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z134">
         <v>2</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="21:27">
       <c r="U135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V135">
         <v>2</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z135">
         <v>1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="21:27">
       <c r="U136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V136">
         <v>3</v>
       </c>
       <c r="W136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z136">
         <v>2</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="21:27">
       <c r="U137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V137">
         <v>3</v>
       </c>
       <c r="W137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y137">
         <v>1</v>
@@ -6657,36 +6657,36 @@
     </row>
     <row r="138" spans="21:27">
       <c r="U138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V138">
         <v>3</v>
       </c>
       <c r="W138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z138">
         <v>4</v>
       </c>
       <c r="AA138">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="21:27">
       <c r="U139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V139">
         <v>2</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z139">
         <v>1</v>
@@ -6706,13 +6706,13 @@
         <v>1</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z140">
         <v>2</v>
       </c>
       <c r="AA140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="21:27">
@@ -6737,53 +6737,53 @@
     </row>
     <row r="142" spans="21:27">
       <c r="U142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V142">
         <v>3</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z142">
         <v>2</v>
       </c>
       <c r="AA142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="21:27">
       <c r="U143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V143">
         <v>2</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z143">
         <v>2</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="21:27">
       <c r="U144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V144">
         <v>2</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y144">
         <v>0</v>
@@ -6797,13 +6797,13 @@
     </row>
     <row r="145" spans="21:27">
       <c r="U145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V145">
         <v>2</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y145">
         <v>0</v>
@@ -6817,33 +6817,33 @@
     </row>
     <row r="146" spans="21:27">
       <c r="U146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V146">
         <v>2</v>
       </c>
       <c r="W146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z146">
         <v>1</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="21:27">
       <c r="U147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V147">
         <v>1</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y147">
         <v>0</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="148" spans="21:27">
       <c r="U148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V148">
         <v>1</v>
@@ -6866,18 +6866,18 @@
         <v>1</v>
       </c>
       <c r="Y148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z148">
         <v>1</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="21:27">
       <c r="U149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V149">
         <v>1</v>
@@ -6886,33 +6886,33 @@
         <v>1</v>
       </c>
       <c r="Y149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z149">
         <v>1</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="21:27">
       <c r="U150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V150">
         <v>3</v>
       </c>
       <c r="W150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z150">
         <v>2</v>
       </c>
       <c r="AA150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="21:27">
@@ -6926,57 +6926,57 @@
         <v>0</v>
       </c>
       <c r="Y151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z151">
         <v>2</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="21:27">
       <c r="Y152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z152">
         <v>1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="21:27">
       <c r="Y153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z153">
         <v>2</v>
       </c>
       <c r="AA153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="21:27">
       <c r="Y154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z154">
         <v>1</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="21:27">
       <c r="Y155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z155">
         <v>1</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="21:27">
@@ -7003,7 +7003,7 @@
     </row>
     <row r="158" spans="21:27">
       <c r="Y158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z158">
         <v>1</v>
@@ -7014,46 +7014,46 @@
     </row>
     <row r="159" spans="21:27">
       <c r="Y159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z159">
         <v>1</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="21:27">
       <c r="Y160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z160">
         <v>2</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="25:27">
       <c r="Y161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z161">
         <v>3</v>
       </c>
       <c r="AA161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="25:27">
       <c r="Y162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z162">
         <v>3</v>
       </c>
       <c r="AA162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="25:27">
@@ -7080,13 +7080,13 @@
     </row>
     <row r="165" spans="25:27">
       <c r="Y165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z165">
         <v>2</v>
       </c>
       <c r="AA165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="25:27">
@@ -7124,35 +7124,35 @@
     </row>
     <row r="169" spans="25:27">
       <c r="Y169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z169">
         <v>2</v>
       </c>
       <c r="AA169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="25:27">
       <c r="Y170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z170">
         <v>2</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="25:27">
       <c r="Y171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z171">
         <v>2</v>
       </c>
       <c r="AA171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="25:27">
@@ -7168,24 +7168,24 @@
     </row>
     <row r="173" spans="25:27">
       <c r="Y173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z173">
         <v>1</v>
       </c>
       <c r="AA173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="25:27">
       <c r="Y174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z174">
         <v>1</v>
       </c>
       <c r="AA174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="25:27">
@@ -7201,13 +7201,13 @@
     </row>
     <row r="176" spans="25:27">
       <c r="Y176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z176">
         <v>1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
